--- a/기능리스트.xlsx
+++ b/기능리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03_Study\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B0459B-D6BC-4150-8749-99B03D882C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C52746-19A1-485D-8557-AB96EB3B39D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="105">
   <si>
     <t>기초</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,12 +345,264 @@
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program Computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. "통신생성" 메뉴만 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Port Open상태에 따라 Visible 처리
+1-1. 통신 Open 상태일 경우
+1-1-1. "통신 닫기" 메뉴만 표기
+1-2. 통신 Close 상태일 경우 아래 분류에따라 구분지어서 메뉴 표기
+1-2-1. Port 연결
+1-2-2. Port 수정
+1-2-3. Unit 생성
+2. Text Menu Enable 처리
+3. Icon Menu Enable 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Unit Connect 상태에 따라 Visible 처리
+1-1. Connect상태일 경우
+1-1-1. 미표기
+1-2. DisConnect 상태일 경우
+1-2-1. Unit 관리
+2. Text Menu Enable 처리
+3. Icon Menu Enable 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Port Type에 따라 Port 속성 표기
+1-1. Serial Port : PortName, Type, BaudRate, DataBits, Parity, StopBit
+1-2. Ethernet Port : IP 주소, Port 번호
+2. Port Open 상태에 따라 Icon 메뉴 Visible
+2-1. Open 상태일 경우 : Port Open 메뉴 숨기기
+2-2. Close 상태일 경우 : Port Close 메뉴 숨기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TabControl 닫기버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 선택되어있는 Tab Close Evnent 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 마지막 Tab이였을 경우 버튼 숨김
+2. 선택되어있는 Tab 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이미 담당 Tab이 열려있는지 확인
+1-1. 열려있으면 해당 Tab Focus 후 진행 종료
+2. 열려있는 Tab이 있는지 확인
+2-1. 없으면 TabControl 닫기 버튼 Visible On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 유닛 설정 화면 Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신 열기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신 닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 통신관리 화면 Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 선택된 Node가 있는지 확인
+1-1. 선택된 Node가 없을경우 실행 취소
+2. 선택된 Node가 Unit인지 Port인지 구분
+2-1. Unit일경우 상위Port로 작업 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 선택된 Port 통신 Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 선택된 Port 통신 Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상위 Port가 통신 Close 상태일 경우 무조건 통신 Off 상태 표현
+2. Unit 통신 상태에 딸 통신상태 표현
+2-1. On상태일 경우 통신On 상태 표현
+2-2. Off 상태일 경우 통신 Off 상태 표현
+2-3. 기초정보를 가져오는 동안 연결중 상태 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상위 Port가 통신 On 상태일 때일 동안 Port의 통신 규격 및 Unit Model 확인
+2. Unit Model의 통신 규격에따라 전송 Frame 생성
+2-1. Header Frame 생성
+2-2. Data Frame 생성 - 기초정보 호출
+2-3. Tail Frame 생성
+2-4. Header + Data + Tail Frame 병합
+3. Port 통신 규격에 해당 Data Send 처리
+3-1. Send할 Data 정보를 Port의 Queue에 저장(순서대로 갔는지 확인용)
+3-2. Send할 Data 정보 Send Data Text 창에 표기(데이터 검사용)
+3-3. Data Send
+4. Unit 상태값 연결 중 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신 Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 선택된 Unit의 속성 표기
+1-1. 표기내역 : Address, Type, Model, 유저 지정 Name
+2.  상위 Port Open 상태에 따라 Icon Menu Visible
+2-1. Open 상태일 경우 : Port Open 메뉴 숨기기
+2-2. Close 상태일 경우 : Port Close 메뉴 숨기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive 테스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Data Send시 통신 Log에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 상위 Port 상태가 통신 On 상태일 때 동안 진행
+2. Sending한 Queue의 먼저 보낸 Data 읽기(Peek)
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data의 Receive End 어떻게 파악하지?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-1. port.bytestoRead()기능을 통해 읽을 수 있는 byte 확인
+3-2. 읽은 byte 길이가 최소 header size 검사
+3-3. 읽은 byte 길이가 Header를 분석 했을 때 Data Length만큼 들어왔는지 검사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Receive된 Data의 Header와 Port의 Queue의 먼저 보낸 Data 확인(Peek)
+4-1. Unit Addres + 전송 Cmd 일치 검사
+5. 정상 Receive일경우 Unit 상태값 "연결됨" 값으로 변경
+6. n초마다 Data Send 진행(통신 성공, 실패 상관 없음)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,16 +626,59 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -406,11 +701,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -419,9 +744,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,8 +764,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,931 +1064,1520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="74.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="I1" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="I3" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="I4" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="I5" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="I6" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="I7" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="I8" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="I9" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="I10" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="I11" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="I12" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="I13" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="I14" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="I15" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="I16" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="I17" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="I18" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="I19" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="I20" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="I21" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="I22" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="I23" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="I24" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="I25" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="I26" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="I27" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="G28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="I28" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="I29" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="G30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="I30" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="I31" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="B32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="9" t="s">
+      <c r="G32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="I32" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="B33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="6" t="s">
+      <c r="G33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="I33" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="G34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="I34" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="9" t="s">
+      <c r="G35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+      <c r="I35" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="B36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="9" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="I36" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="9" t="s">
+      <c r="G37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="I37" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" ht="165" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I59" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
